--- a/StartPoint/DataTable.xlsx
+++ b/StartPoint/DataTable.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>minchul</t>
   </si>
@@ -29,21 +33,30 @@
   </si>
   <si>
     <t>tester2</t>
+  </si>
+  <si>
+    <t>gggggg</t>
+  </si>
+  <si>
+    <t>우효우효</t>
+  </si>
+  <si>
+    <t>기모링</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="10.0"/>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -53,43 +66,42 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -143,197 +155,258 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="true" defaultRowHeight="15.75" defaultColWidth="12.6640625" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" customHeight="1" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>123456.0</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" customHeight="1" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1234567.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1234567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" customHeight="1" ht="15.75">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>47888.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>47888</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" customHeight="1" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>92312.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>92312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" customHeight="1" ht="15.75">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1234.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" customHeight="1" ht="15.75">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>123456.0</v>
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>